--- a/Cadastro Funcionarios.xlsx
+++ b/Cadastro Funcionarios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Kayky POWER BI\AULA 01\POWER-BI\AULA 4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{926681D8-D83F-4D43-8C4F-BB752D9CFE6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6DF91B1-DD43-42ED-8FFE-4DB418283DD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="60">
   <si>
     <t>Allan Centurione</t>
   </si>
@@ -184,6 +184,30 @@
   </si>
   <si>
     <t>R.De Izepe, 76 -João Aldo Nassig, Jaguariuna - SP, 138300-98</t>
+  </si>
+  <si>
+    <t>Fotos</t>
+  </si>
+  <si>
+    <t>https://github.com/wellifabio/senai2023/blob/main/2des/projetos/assets/avatares/cli1.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/wellifabio/senai2023/blob/main/2des/projetos/assets/avatares/cli2.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/wellifabio/senai2023/blob/main/2des/projetos/assets/avatares/cli4.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/wellifabio/senai2023/blob/main/2des/projetos/assets/avatares/cli7.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/wellifabio/senai2023/blob/main/2des/projetos/assets/avatares/cli5.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/wellifabio/senai2023/blob/main/2des/projetos/assets/avatares/cli6.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/wellifabio/senai2023/blob/main/2des/projetos/assets/avatares/cli3.png?raw=true</t>
   </si>
 </sst>
 </file>
@@ -194,7 +218,7 @@
     <numFmt numFmtId="8" formatCode="&quot;R$&quot;\ #,##0.00;[Red]\-&quot;R$&quot;\ #,##0.00"/>
     <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -210,8 +234,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -228,6 +267,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor theme="9" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -255,10 +300,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -287,8 +333,18 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -567,10 +623,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:P15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P27" sqref="P27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -581,9 +637,15 @@
     <col min="4" max="4" width="19" customWidth="1"/>
     <col min="5" max="5" width="73.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="10" width="19" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" customWidth="1"/>
+    <col min="12" max="12" width="17.5703125" customWidth="1"/>
+    <col min="13" max="13" width="15.28515625" customWidth="1"/>
+    <col min="14" max="14" width="15.42578125" customWidth="1"/>
+    <col min="15" max="15" width="13" customWidth="1"/>
+    <col min="16" max="16" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>43</v>
       </c>
@@ -614,8 +676,16 @@
       <c r="J1" s="2" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K1" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -646,8 +716,16 @@
       <c r="J2" s="6">
         <v>562.5</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K2" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -678,8 +756,16 @@
       <c r="J3" s="7">
         <v>306.25</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K3" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -710,8 +796,16 @@
       <c r="J4" s="6">
         <v>630</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K4" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -742,8 +836,16 @@
       <c r="J5" s="7">
         <v>120</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K5" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -774,8 +876,16 @@
       <c r="J6" s="6">
         <v>875</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K6" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -806,8 +916,16 @@
       <c r="J7" s="7">
         <v>912.5</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K7" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -838,8 +956,16 @@
       <c r="J8" s="6">
         <v>337.5</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K8" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -870,8 +996,16 @@
       <c r="J9" s="7">
         <v>506.25</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K9" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -902,8 +1036,16 @@
       <c r="J10" s="6">
         <v>412.5</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K10" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -934,8 +1076,16 @@
       <c r="J11" s="7">
         <v>175</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K11" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="10"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -966,8 +1116,16 @@
       <c r="J12" s="6">
         <v>130</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K12" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="10"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -998,8 +1156,16 @@
       <c r="J13" s="7">
         <v>225</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K13" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -1030,8 +1196,16 @@
       <c r="J14" s="6">
         <v>641.25</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K14" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>14</v>
       </c>
@@ -1062,9 +1236,50 @@
       <c r="J15" s="9">
         <v>337</v>
       </c>
+      <c r="K15" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="10"/>
     </row>
   </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="K13:P13"/>
+    <mergeCell ref="K14:P14"/>
+    <mergeCell ref="K15:P15"/>
+    <mergeCell ref="K7:P7"/>
+    <mergeCell ref="K8:P8"/>
+    <mergeCell ref="K9:P9"/>
+    <mergeCell ref="K10:P10"/>
+    <mergeCell ref="K11:P11"/>
+    <mergeCell ref="K12:P12"/>
+    <mergeCell ref="K1:P1"/>
+    <mergeCell ref="K2:P2"/>
+    <mergeCell ref="K3:P3"/>
+    <mergeCell ref="K4:P4"/>
+    <mergeCell ref="K5:P5"/>
+    <mergeCell ref="K6:P6"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="K7" r:id="rId1" xr:uid="{87518DBE-D3D0-4207-94F2-59729156746D}"/>
+    <hyperlink ref="K15" r:id="rId2" xr:uid="{4572960E-4047-45F4-A2EE-B035701097AA}"/>
+    <hyperlink ref="K13" r:id="rId3" xr:uid="{FABFBC33-2A6D-4724-A604-52987B9F391D}"/>
+    <hyperlink ref="K8" r:id="rId4" xr:uid="{9198C659-0C31-4398-95DF-7F8CB0D0D685}"/>
+    <hyperlink ref="K2" r:id="rId5" xr:uid="{7A713919-D15C-4F6A-971D-04D3D1DB285B}"/>
+    <hyperlink ref="K3" r:id="rId6" xr:uid="{5320BD21-7593-473A-A00E-1625765510CA}"/>
+    <hyperlink ref="K4" r:id="rId7" xr:uid="{8DFF6ACA-B75A-4A3E-9CC6-8D8DC5A84DAE}"/>
+    <hyperlink ref="K5" r:id="rId8" xr:uid="{3FBF9D05-71BB-4072-B899-1A74023B4899}"/>
+    <hyperlink ref="K6" r:id="rId9" xr:uid="{C8CEA512-4B17-4F47-877E-335157811699}"/>
+    <hyperlink ref="K11" r:id="rId10" xr:uid="{FCB2BF9A-B0CA-4448-82F7-A792483D25A2}"/>
+    <hyperlink ref="K14" r:id="rId11" xr:uid="{5C0E0964-0ECF-4F59-A8BB-D9BB29800CB1}"/>
+    <hyperlink ref="K12" r:id="rId12" xr:uid="{FC69D11A-9255-44F7-84B1-B6CC185E7507}"/>
+    <hyperlink ref="K9" r:id="rId13" xr:uid="{5EBC9960-2DA7-4188-868C-368175BE2EBF}"/>
+    <hyperlink ref="K10" r:id="rId14" xr:uid="{33512C36-8F4F-4F9E-A10A-F912AC85CF32}"/>
+  </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId15"/>
 </worksheet>
 </file>